--- a/data/hotels_by_city/Houston/Houston_shard_656.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_656.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107957-Reviews-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-TownePlace-Suites-Houston-Brookhollow.h117291.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,898 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r570251634-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107957</t>
+  </si>
+  <si>
+    <t>570251634</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Older but Nice</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of nights when in town visiting family.  The desk clerks were very kind both times. The first night we had a queen bed with sofa sleeper.  The sofa sleeper was so uncomfortable that my son had to use pillows under him to sleep.  Otherwise it was a nice stay.  The second night we had 2 queen beds and was also a nice stay.  Definitely an older hotel,  but nice and clean.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Colin K, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of nights when in town visiting family.  The desk clerks were very kind both times. The first night we had a queen bed with sofa sleeper.  The sofa sleeper was so uncomfortable that my son had to use pillows under him to sleep.  Otherwise it was a nice stay.  The second night we had 2 queen beds and was also a nice stay.  Definitely an older hotel,  but nice and clean.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r558162426-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558162426</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Good location..</t>
+  </si>
+  <si>
+    <t>I have worked a lot in this area and have always stayed across the highway (290), I decided to try the other side this time and was pleasantly surprised on how much quieter it was. Located behind Denny's and across from the Brickhouse food and drinks were covered. My room was spacious enough with all that you need for a week's stay. WiFi was fast enough and an included breakfast is always welcome. I'll be back again.. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rita S, General Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>I have worked a lot in this area and have always stayed across the highway (290), I decided to try the other side this time and was pleasantly surprised on how much quieter it was. Located behind Denny's and across from the Brickhouse food and drinks were covered. My room was spacious enough with all that you need for a week's stay. WiFi was fast enough and an included breakfast is always welcome. I'll be back again.. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r540554936-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540554936</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Older but Good Service</t>
+  </si>
+  <si>
+    <t>Was first placed in a room just off from the lobby which was noisy from the sound carrying directly to our room. We asked to be moved to the 3rd floor to get away from the noise.  They were good to move us.  We found the room to be vary musty as was the room our friends were given.  We were able to clear most of the smell by putting a freshener on the room air conditioner.  Our friends weren't so lucky.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Was first placed in a room just off from the lobby which was noisy from the sound carrying directly to our room. We asked to be moved to the 3rd floor to get away from the noise.  They were good to move us.  We found the room to be vary musty as was the room our friends were given.  We were able to clear most of the smell by putting a freshener on the room air conditioner.  Our friends weren't so lucky.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r507595745-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507595745</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Nice and Easy Stay</t>
+  </si>
+  <si>
+    <t>When I called ahead to verify the reservation, the front desk confirmed it and answer all of my questions in the best manner possible.  I was disappointed to learn that the room actually had one bed and one pullout sofa.  When I booked it, I was under the impression that it could accomodate 5 people.  While this was not the fault of the hotel since I booked through VRBO, the hotel still worked with me by offering a roll-away bed for no additonal charge.  Our room was a bit muggy but it is Houston so it is not much you can do about that.  Whenever we had a request the front desk fulfilled it quickly.  The breakfast was aight, but free, so that is alway good.  I kind of wished that there was a pool though.  They do have a hot tub outdoors and a BBQ grill area with a gazebo.  It is near a lot of places to eat and shopping retail too, which is a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>When I called ahead to verify the reservation, the front desk confirmed it and answer all of my questions in the best manner possible.  I was disappointed to learn that the room actually had one bed and one pullout sofa.  When I booked it, I was under the impression that it could accomodate 5 people.  While this was not the fault of the hotel since I booked through VRBO, the hotel still worked with me by offering a roll-away bed for no additonal charge.  Our room was a bit muggy but it is Houston so it is not much you can do about that.  Whenever we had a request the front desk fulfilled it quickly.  The breakfast was aight, but free, so that is alway good.  I kind of wished that there was a pool though.  They do have a hot tub outdoors and a BBQ grill area with a gazebo.  It is near a lot of places to eat and shopping retail too, which is a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r498324443-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498324443</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly Staff </t>
+  </si>
+  <si>
+    <t>The staff that I met (Colin and Rita) were both very friendly and helpful. The hotel was quiet and offered a decent little breakfast.  The area to eat was small but suitable if you weren't a family.  I was surprised that the room needed some extra attention when being vacuumed.  When I opened the door to my first floor room I had a cockroach that decided to run across the room. I could not capture him and figured "hey it's Texas". Other than that the bed was comfortable and the room served its purpose. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>The staff that I met (Colin and Rita) were both very friendly and helpful. The hotel was quiet and offered a decent little breakfast.  The area to eat was small but suitable if you weren't a family.  I was surprised that the room needed some extra attention when being vacuumed.  When I opened the door to my first floor room I had a cockroach that decided to run across the room. I could not capture him and figured "hey it's Texas". Other than that the bed was comfortable and the room served its purpose. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r491364889-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491364889</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Very good for business trip</t>
+  </si>
+  <si>
+    <t>Hotel is very convenient walk to Twin Peaks and Denny's restaurants across the parking lot, with more restaurants and shops just down the street. I had a decent room. The elevator is a bit slow, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is very convenient walk to Twin Peaks and Denny's restaurants across the parking lot, with more restaurants and shops just down the street. I had a decent room. The elevator is a bit slow, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r466012671-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466012671</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Great Place for a Businessperson</t>
+  </si>
+  <si>
+    <t>I had the pleasure of spending five weeks in this hotel while in Houston on business.First, let me say that the staff, from top to bottom, is what makes this hotel the wonderful hotel that it is.  They always bend over backward to ensure your comfort.  Any issues are attended to immediately.  They are also cheerful as well as competent.The only reason I give this hotel a four rather than a five is the antiquated telephone system.  It is difficult to have conversations as there is often a lot of static.  Other than that, the place is perfect.Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>I had the pleasure of spending five weeks in this hotel while in Houston on business.First, let me say that the staff, from top to bottom, is what makes this hotel the wonderful hotel that it is.  They always bend over backward to ensure your comfort.  Any issues are attended to immediately.  They are also cheerful as well as competent.The only reason I give this hotel a four rather than a five is the antiquated telephone system.  It is difficult to have conversations as there is often a lot of static.  Other than that, the place is perfect.Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r464059752-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464059752</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>One of the friendliest places I've been</t>
+  </si>
+  <si>
+    <t>I use this hotel two or three times a year for long stays of four to 5 weeks....the staff are great, they try to make me (and my colleagues) feel like we are at home.It's basic but the friendly atmosphere makes such a difference.Barbecue out the back, plenty of places to eat out the front and well placed for easy access to the centre of Houston or the airport.Clean rooms, good housekeeping and all the beds have just been upgraded so some mornings it is hard to get up....I just want to stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>I use this hotel two or three times a year for long stays of four to 5 weeks....the staff are great, they try to make me (and my colleagues) feel like we are at home.It's basic but the friendly atmosphere makes such a difference.Barbecue out the back, plenty of places to eat out the front and well placed for easy access to the centre of Houston or the airport.Clean rooms, good housekeeping and all the beds have just been upgraded so some mornings it is hard to get up....I just want to stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r455704698-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455704698</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome visit </t>
+  </si>
+  <si>
+    <t>We went as couples for a Men's Conferance and our stay was awesome. The rooms were very clean and it was just a nice experience. The hotel staff was great one especially was Valleen she took good care of our needs and she made sure we were comfortable. This place need a 10 star rating MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>We went as couples for a Men's Conferance and our stay was awesome. The rooms were very clean and it was just a nice experience. The hotel staff was great one especially was Valleen she took good care of our needs and she made sure we were comfortable. This place need a 10 star rating More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r422249408-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422249408</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Family event</t>
+  </si>
+  <si>
+    <t>This place was nice from the time we checked in the manager was so nice and accommodating, eager to help with anything we needed. The room was great fresh smelling and the bed was very relaxing. The over all experience is satisfying and I would recommend this place to anyone.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r421739415-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421739415</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>TownePlace Suites State of the Art</t>
+  </si>
+  <si>
+    <t>I must say that the staff, amenities, and overall atmosphere of this particular hotel was superb. They are very hospitable, very professional, and fun! Seems like they really enjoy their jobs and are genuinely helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r412363609-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412363609</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in Houston for a few days and this hotel was just what we needed. It was close to the interstate and a few restaurants you could walk to. The breakfast was great and the staff at the desk were very friendly and gave great directions! The only downside to our stay, which had nothing to do with the hotel,is that there is construction going on right outside of it on the road so it was hard to find at first. We had to loop around and try a second time to get to them. Otherwise it was great and we would recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed in Houston for a few days and this hotel was just what we needed. It was close to the interstate and a few restaurants you could walk to. The breakfast was great and the staff at the desk were very friendly and gave great directions! The only downside to our stay, which had nothing to do with the hotel,is that there is construction going on right outside of it on the road so it was hard to find at first. We had to loop around and try a second time to get to them. Otherwise it was great and we would recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r381582591-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381582591</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I had a last minute change in hotels and was able to use my points to book.Ms Rita and all the staff were extremely nice. They offered me free bottled waters as well which is a nice treat int he Texas heat. They also give Platinum members a goodie bag with water and chocolates! Room was clean and comfortable. So long as rates are reasonable here I will stay here when in Houston.You can walk to Brick House next door which is my main watering hole in Houston so this is a convenient location. There are other restaurants nearby as well.Only downside of NW 290 is the construction but if you know how to get around the back way you will be fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>I had a last minute change in hotels and was able to use my points to book.Ms Rita and all the staff were extremely nice. They offered me free bottled waters as well which is a nice treat int he Texas heat. They also give Platinum members a goodie bag with water and chocolates! Room was clean and comfortable. So long as rates are reasonable here I will stay here when in Houston.You can walk to Brick House next door which is my main watering hole in Houston so this is a convenient location. There are other restaurants nearby as well.Only downside of NW 290 is the construction but if you know how to get around the back way you will be fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r364999322-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364999322</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Two Nights 4/14</t>
+  </si>
+  <si>
+    <t>I may have just gotten a bad room or it was laid out by a drunk.  Check out the picture, the a/c was about a foot off the bed...maybe the place for you if you like intermittent cold air up your skirt.  Breakfast was ok but this is Texas &amp; a little salsa for the eggs poor favor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adam M, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>I may have just gotten a bad room or it was laid out by a drunk.  Check out the picture, the a/c was about a foot off the bed...maybe the place for you if you like intermittent cold air up your skirt.  Breakfast was ok but this is Texas &amp; a little salsa for the eggs poor favor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r362302781-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362302781</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>A Great Stay and Better Staff</t>
+  </si>
+  <si>
+    <t>The hotel itself is very good with a very comfortable bed and very clean. The front desk staff is incredible with my experience being second to none. Upon arrival at 11:00 PM I was greeted by a very friendly clerk who not only made in the check in experience very good but arranged for a taxi for me the next morning. To my surprise I got a wake up call 1/2 hour before my cab was to arrive just to remind me of the time of pick up. Great service. Only down side is breakfast was just ok. The round prepared egg should have been eliminated for scrambled, as the little white hockey puck-like eggs were not very enticing.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The hotel itself is very good with a very comfortable bed and very clean. The front desk staff is incredible with my experience being second to none. Upon arrival at 11:00 PM I was greeted by a very friendly clerk who not only made in the check in experience very good but arranged for a taxi for me the next morning. To my surprise I got a wake up call 1/2 hour before my cab was to arrive just to remind me of the time of pick up. Great service. Only down side is breakfast was just ok. The round prepared egg should have been eliminated for scrambled, as the little white hockey puck-like eggs were not very enticing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r298581665-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298581665</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Will be back :)</t>
+  </si>
+  <si>
+    <t>I stayed in all hotels in the neighborhood many times, but this is my first stay at TownePlaceSuites-Marriott, and without exaggeration I had the best stay.What to say: - friendly and welcoming staff, - clean bathroom with daily fresh towels - neatly cleaned room- comfortable bed- good shower- well equipped kitchenette with s full size fridge, and with real dishes. I made my own healthy paleo breakfast, so I didn't even look at the common breakfast area and the menu and cannot comment on that. However, I noticed that there is a free coffee and a basket with fresh fruits available all day - a nice touch.- and above all, a quiet room, regardless a busy HW290- because I am a gold member, I got complimentary fast internet bandwidth (5MB/s), which is plenty to transfer large business related files and even watch movies at leisure time.Finally, during my stay the carpet was professionally cleaned. Thus, this tells me that the manager took seriously some earlier reviews with complains about the carpet. The staff cares, which counts a lot :) Good job and keep going.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I stayed in all hotels in the neighborhood many times, but this is my first stay at TownePlaceSuites-Marriott, and without exaggeration I had the best stay.What to say: - friendly and welcoming staff, - clean bathroom with daily fresh towels - neatly cleaned room- comfortable bed- good shower- well equipped kitchenette with s full size fridge, and with real dishes. I made my own healthy paleo breakfast, so I didn't even look at the common breakfast area and the menu and cannot comment on that. However, I noticed that there is a free coffee and a basket with fresh fruits available all day - a nice touch.- and above all, a quiet room, regardless a busy HW290- because I am a gold member, I got complimentary fast internet bandwidth (5MB/s), which is plenty to transfer large business related files and even watch movies at leisure time.Finally, during my stay the carpet was professionally cleaned. Thus, this tells me that the manager took seriously some earlier reviews with complains about the carpet. The staff cares, which counts a lot :) Good job and keep going.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r289689078-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289689078</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Great employees, room for improvement</t>
+  </si>
+  <si>
+    <t>Overall, I have great things to say about this hotel. I love the room layout and being walking distance/a very short drive from many restaurants and stores. The staff was so friendly!  My biggest issue was the difficulty controlling the room temp. The living room was freezing but the bedroom was hot and the ceiling fan could only be set to low, so I never cooled off enough to sleep well. Also, the clear shower curtain lining smelled of mildew and needed to be replaced. I might stay here once more to give it another try before giving up because the location is great and I do love the layout. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Overall, I have great things to say about this hotel. I love the room layout and being walking distance/a very short drive from many restaurants and stores. The staff was so friendly!  My biggest issue was the difficulty controlling the room temp. The living room was freezing but the bedroom was hot and the ceiling fan could only be set to low, so I never cooled off enough to sleep well. Also, the clear shower curtain lining smelled of mildew and needed to be replaced. I might stay here once more to give it another try before giving up because the location is great and I do love the layout. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r279564174-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279564174</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Poor Breakfast and Wifi, everything else is 5 stars</t>
+  </si>
+  <si>
+    <t>The Wifi is slow and 'breakfast' is poor. Apart from that I am happy. The is a hot tub outside, it's next to restraints and has a good nights sleep. Air Conditioning very loud but not that bad. Has a built in shop also.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r273819584-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273819584</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Nice extended stay hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just finished a week long stay here and was quite pleased. The staff here was great and the room was nice. I really liked the fact that it has a LOT of restaurants within walking distance of the hotel. The breakfast offerings were pretty standard ( nothing special ) and the "pool" was really a hot tub, but the fitness center had a nice assortment of free weights plus a nice treadmill   Overall, it was a good place to stay. I would recommend it. </t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r268305037-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268305037</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>Great place: clean, quiet, perfectly located and wonderful staff.</t>
+  </si>
+  <si>
+    <t>After having a bad experience at another hotel, we moved here for the rest of our Houston stay. The hotel is clean, very quiet, great location, staff always happy to help, and what a great breakfast every day! The rooms are decorated in cool, contemporary styles. The blackout shades and soundproof windows allow even light sleepers like myself to get a good night's sleep. The garden/hot-tub area was very pleasant to sit outside and enjoy every evening. We also used the huge gas grill to grill several times. It felt like we were home! The clientele that stays here are business professionals. We travel across the US and Canada with our business; we will be staying here again when we are back in the Houston area! Management has done their homework here to make sure that everyone's stay is pleasant! I also enjoyed the fitness center.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>After having a bad experience at another hotel, we moved here for the rest of our Houston stay. The hotel is clean, very quiet, great location, staff always happy to help, and what a great breakfast every day! The rooms are decorated in cool, contemporary styles. The blackout shades and soundproof windows allow even light sleepers like myself to get a good night's sleep. The garden/hot-tub area was very pleasant to sit outside and enjoy every evening. We also used the huge gas grill to grill several times. It felt like we were home! The clientele that stays here are business professionals. We travel across the US and Canada with our business; we will be staying here again when we are back in the Houston area! Management has done their homework here to make sure that everyone's stay is pleasant! I also enjoyed the fitness center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r260302182-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260302182</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>This is my 4th stay at this hotel, and I will ALWAYS stay here when in town on business. It's clean, the staff is friendly and helpful, and you can't beat the value. The only thing that I wish this hotel had that it doesn't is an in-house restaurant. The breakfast selection is great, though. There are more upscale hotels in the area, but the staff makes this one worth the stay.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r251273212-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251273212</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Not A Good Experience</t>
+  </si>
+  <si>
+    <t>The pictures do not speak a thousand word. They deceive. This is true of this Hotel. A suite shown in picture seems good but when you walk in, you are taken aback. When I complained, I was informed that all room sizes in the Hotel are same. No effort was made to change our room. This isn't true.The breakfast area is small and the breakfast is okay. The internet speed left much to be desired. The room cleaning service wasn't of any use. The towels were not replaced. It doesn't look like a Marriott property. Stay away, if you can.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded January 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2015</t>
+  </si>
+  <si>
+    <t>The pictures do not speak a thousand word. They deceive. This is true of this Hotel. A suite shown in picture seems good but when you walk in, you are taken aback. When I complained, I was informed that all room sizes in the Hotel are same. No effort was made to change our room. This isn't true.The breakfast area is small and the breakfast is okay. The internet speed left much to be desired. The room cleaning service wasn't of any use. The towels were not replaced. It doesn't look like a Marriott property. Stay away, if you can.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r248150648-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248150648</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>The Best!</t>
+  </si>
+  <si>
+    <t>Found on tripadvisor,  the TownePlace Suites Houston gave us ample space, and quiet.  We are grateful to previous reviewers who highly rated the property.Even though we were there during a busy Thanksgiving weekend, the hotel was fully staffed, the rooms were fully cleaned, and everyone was "Texas nice."Our suite was indeed a suite, with a full kitchen, equipped with dishes, and pots and pans.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r246223611-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246223611</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Nice and Simple</t>
+  </si>
+  <si>
+    <t>We chose this hotel after a return from a cruise. The only thing is it is too far from the cruise port. I liked it because of the suite. It has a kitchenette and couch. The front desk was very helpful in answering all of our questions. The hotel is very quiet. They serve a free breakfast. Plenty of fresh towels.You will need a car to get around.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jaclyn M, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>We chose this hotel after a return from a cruise. The only thing is it is too far from the cruise port. I liked it because of the suite. It has a kitchenette and couch. The front desk was very helpful in answering all of our questions. The hotel is very quiet. They serve a free breakfast. Plenty of fresh towels.You will need a car to get around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r226349706-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226349706</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>I've been in town for work and living out of this hotel for the majority of the summer. The staff has been great! Very polite and helpful with whatever I've asked of them, as well as maintaining a very clean hotel. The location isn't the greatest (there isn't a whole lot going on in this corner of Houston), but they have gone out of their way to make this feel as close to home as a long term stay can. I would definitely recommend this location to someone in town on business. There are several average restaurant options nearby, as well as retail for those inclined to make their own meals. The gym is adequate, with free weights and a treadmill, but convenient as it's open 24/7.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I've been in town for work and living out of this hotel for the majority of the summer. The staff has been great! Very polite and helpful with whatever I've asked of them, as well as maintaining a very clean hotel. The location isn't the greatest (there isn't a whole lot going on in this corner of Houston), but they have gone out of their way to make this feel as close to home as a long term stay can. I would definitely recommend this location to someone in town on business. There are several average restaurant options nearby, as well as retail for those inclined to make their own meals. The gym is adequate, with free weights and a treadmill, but convenient as it's open 24/7.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r221648800-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221648800</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Best Hotel Experience Ever</t>
+  </si>
+  <si>
+    <t>This is the first review I have ever done. I travel constantly all over the US and worldwide and I have used TripAdvisor for planning trips, but never felt so compelled to write a review. I stay at this hotel often and I have always felt that the customer service here is the most spectacular I have ever encountered. I receive better service here than I do at international hotels that cost 400 a night. Beyond the 5 star service, the hotel is clean and the rooms are as well. There is just about anything you need nearby, including a movie theater and almost unlimited dining options. I stay here a lot for business and it is perfect. But I would recommend this hotel for any stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This is the first review I have ever done. I travel constantly all over the US and worldwide and I have used TripAdvisor for planning trips, but never felt so compelled to write a review. I stay at this hotel often and I have always felt that the customer service here is the most spectacular I have ever encountered. I receive better service here than I do at international hotels that cost 400 a night. Beyond the 5 star service, the hotel is clean and the rooms are as well. There is just about anything you need nearby, including a movie theater and almost unlimited dining options. I stay here a lot for business and it is perfect. But I would recommend this hotel for any stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r215456851-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215456851</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Great staff, very clean. Offers free use of gas bbq grill, jacuzzi,  dishwasher in room. Extremely clean. No issues! Snack bar. Free use of nice computer.  Free wifi. Nice outside area for grilling. Gazebo.  Safe &amp; secure. Great hot/cold breakfast complimentary</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r187955873-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187955873</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>My wife and I recently stayed here for a week. The facility is very clean and has updated amenities. Room was great (bathroom was a little small) and the staff was helpful. Breakfast was very good, Internet was acceptable. We were paying for the stay with rewards points, and there was a mixup in that regard that took several phone calls to Marriott to resolve, but other than that no complaints. The location was perfect for us, and there are quite a few restaurants within easy walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r182594104-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182594104</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Fair Room, Fantastic Service</t>
+  </si>
+  <si>
+    <t>I stayed in a one bedroom suite for five nights and it was fine. The room was basic and clean but showed a bit of wear. It was surprisingly quiet for a room facing the freeway. For a solo traveler, it was a good size space but it would be tough for more than one as there was only one chair at the table/desk so you wouldn't be able to eat together. Speaking of eating, the location was fantastic with lots of dining options within walking distance and a movie theater next door. Breakfast was heat and serve items with a waffle maker. I was fine with that as I usually just eat a bagel and a piece of fruit for breakfast. The staff was fantastic. They greet each guest with a smile and seem genuinely glad you decided to stay with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed in a one bedroom suite for five nights and it was fine. The room was basic and clean but showed a bit of wear. It was surprisingly quiet for a room facing the freeway. For a solo traveler, it was a good size space but it would be tough for more than one as there was only one chair at the table/desk so you wouldn't be able to eat together. Speaking of eating, the location was fantastic with lots of dining options within walking distance and a movie theater next door. Breakfast was heat and serve items with a waffle maker. I was fine with that as I usually just eat a bagel and a piece of fruit for breakfast. The staff was fantastic. They greet each guest with a smile and seem genuinely glad you decided to stay with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r175036685-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175036685</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>Very Good Affordable Hotel</t>
+  </si>
+  <si>
+    <t>Room was great.  Office Seat was well worn.  Toilet a bit old style, but everything was clean and in good order.  Appreciated the free easy wifi service.  Was given very early check in and grateful!  Used the printing station near the lobby.Walking distance to several restaurants, movie theatre, etc.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r164662167-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164662167</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Great inexpensive place in NW Houston</t>
+  </si>
+  <si>
+    <t>I stayed here for one night, and was very impressed with the value of this TownePlace Suites.  There are quite a few dinner options within walking distance (Hooters, Logan's, Twin Peaks, Chili's, Pappasito's, Pappadeaux's, etc.), and the front-desk service was efficient and helpful.  I will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r162485840-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162485840</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff</t>
+  </si>
+  <si>
+    <t>Within 20-25 minute drive of downtown Houston. Lots of restaurants nearby. If they had a pool, it would have been a better stay for me personally. Steven, at the front desk was great! He immediately made us feel like we had selected a good place to stay. The rooms are well equipped, clean and comfy.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r158804385-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158804385</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Nice room and location</t>
+  </si>
+  <si>
+    <t>There are hundreds of hotels in the Houston Area that have good location and restaurants at walking distance, but this one is usually priced lower than most without being a "trashy" hotel. Remodeled last year, this hotel has a contemporary look and atmosphere, but the age of the building is noticeable. There is really nothing to complain about. Excellent WiFi signal and very good speed, even on evenings (when all guest are connected). This is a huge plus for us road warriors.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r154383547-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154383547</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Great week long stay</t>
+  </si>
+  <si>
+    <t>After staying here for a week during the rodeo activities, I have to say this hotel was great. The staff was very accommodating and went out of their way to make me feel at home. The property is located right on 290 which was great for me because my business office is located just a short 10 minute drive down the road. Grocery stores are located fairly close so I was able to stock my fridge conveniently. I do wish the rooms had an oven, but I was able to make do with the cooktop and microwave. If booking a room, I would suggest an "odd-numbered" room to allow you a quieter night sleep since the road noise might bother some.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>After staying here for a week during the rodeo activities, I have to say this hotel was great. The staff was very accommodating and went out of their way to make me feel at home. The property is located right on 290 which was great for me because my business office is located just a short 10 minute drive down the road. Grocery stores are located fairly close so I was able to stock my fridge conveniently. I do wish the rooms had an oven, but I was able to make do with the cooktop and microwave. If booking a room, I would suggest an "odd-numbered" room to allow you a quieter night sleep since the road noise might bother some.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r153641585-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153641585</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Poor Customer Service</t>
+  </si>
+  <si>
+    <t>I can't comment on the aesthetics or cleanliness of the place itself as I never actually made it there. But I can say that customer service at this location is terrible. I had called the hotel directly to reserve a room with 2 beds plus pull out sofa. I had seen from reviews on other sites that people who had requested a particular type of room, such as I did, had issues with getting that room upon check-in. I called the hotel and expressed this concern to the front desk person. She stated that when people book through outside agencies, such as travelocity and such, that's when the issues may arise. Since I was booking directly through the hotel they could guarantee this type of room. I expressed several times that due to the number of people, ages, and gender that it was imperative we have 3 beds of some sort. She assured me I would have no problems.
+Let me make it clear that I called the hotel directly, not the 800- number for marriott, to book this, and guaranteed it with a credit card.
+On the day of our arrival, we got into Houston a little early so I called the hotel to inquire about an early check-in. The person I spoke with had trouble finding my reservation, then when given the confirmation number he "found" it but said the room I requested wasn't available. They did have...I can't comment on the aesthetics or cleanliness of the place itself as I never actually made it there. But I can say that customer service at this location is terrible. I had called the hotel directly to reserve a room with 2 beds plus pull out sofa. I had seen from reviews on other sites that people who had requested a particular type of room, such as I did, had issues with getting that room upon check-in. I called the hotel and expressed this concern to the front desk person. She stated that when people book through outside agencies, such as travelocity and such, that's when the issues may arise. Since I was booking directly through the hotel they could guarantee this type of room. I expressed several times that due to the number of people, ages, and gender that it was imperative we have 3 beds of some sort. She assured me I would have no problems.Let me make it clear that I called the hotel directly, not the 800- number for marriott, to book this, and guaranteed it with a credit card.On the day of our arrival, we got into Houston a little early so I called the hotel to inquire about an early check-in. The person I spoke with had trouble finding my reservation, then when given the confirmation number he "found" it but said the room I requested wasn't available. They did have a room with one bed and a pull out sofa. I was irritated, as I explained to him my conversation, including concerns, with the person with whom I reserved the room. He transferred me to the manager who told me there was nothing they could do, was unwilling to make any further accommodations, but was quick to cancel my reservation. His excuse for not having my room was that there was "a leak" the night before and 2 of those rooms were unavailable. So nice of them to cancel and not charge my credit card, but I am now in Houston, with no place to sleep. At this point I called Marriott's 800-number and spoke with customer service, who found me another Marriott property close by with the room I requested. The rate was a little higher, but they offered a credit in order to match the rate of the first property. I don't know if there was a leak or not, but I find it suspicious that they had trouble finding my reservation. Plus, given other negative reviews regarding room requests, I think they just dropped the ball. It would have been totally different if, when I reserved the room, I would have been told that there was no guarantee I would get that type of room. Instead I was told I would not have any problems.Sorry this is such a long review. Bottom line: If you need a certain type of room DO NOT TRUST that they will have it for you upon check in. Even if you book directly with them. If you stay here, hope that everything goes smoothly, because management DOES NOT try to help out or accommodate in any way.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded March 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2013</t>
+  </si>
+  <si>
+    <t>I can't comment on the aesthetics or cleanliness of the place itself as I never actually made it there. But I can say that customer service at this location is terrible. I had called the hotel directly to reserve a room with 2 beds plus pull out sofa. I had seen from reviews on other sites that people who had requested a particular type of room, such as I did, had issues with getting that room upon check-in. I called the hotel and expressed this concern to the front desk person. She stated that when people book through outside agencies, such as travelocity and such, that's when the issues may arise. Since I was booking directly through the hotel they could guarantee this type of room. I expressed several times that due to the number of people, ages, and gender that it was imperative we have 3 beds of some sort. She assured me I would have no problems.
+Let me make it clear that I called the hotel directly, not the 800- number for marriott, to book this, and guaranteed it with a credit card.
+On the day of our arrival, we got into Houston a little early so I called the hotel to inquire about an early check-in. The person I spoke with had trouble finding my reservation, then when given the confirmation number he "found" it but said the room I requested wasn't available. They did have...I can't comment on the aesthetics or cleanliness of the place itself as I never actually made it there. But I can say that customer service at this location is terrible. I had called the hotel directly to reserve a room with 2 beds plus pull out sofa. I had seen from reviews on other sites that people who had requested a particular type of room, such as I did, had issues with getting that room upon check-in. I called the hotel and expressed this concern to the front desk person. She stated that when people book through outside agencies, such as travelocity and such, that's when the issues may arise. Since I was booking directly through the hotel they could guarantee this type of room. I expressed several times that due to the number of people, ages, and gender that it was imperative we have 3 beds of some sort. She assured me I would have no problems.Let me make it clear that I called the hotel directly, not the 800- number for marriott, to book this, and guaranteed it with a credit card.On the day of our arrival, we got into Houston a little early so I called the hotel to inquire about an early check-in. The person I spoke with had trouble finding my reservation, then when given the confirmation number he "found" it but said the room I requested wasn't available. They did have a room with one bed and a pull out sofa. I was irritated, as I explained to him my conversation, including concerns, with the person with whom I reserved the room. He transferred me to the manager who told me there was nothing they could do, was unwilling to make any further accommodations, but was quick to cancel my reservation. His excuse for not having my room was that there was "a leak" the night before and 2 of those rooms were unavailable. So nice of them to cancel and not charge my credit card, but I am now in Houston, with no place to sleep. At this point I called Marriott's 800-number and spoke with customer service, who found me another Marriott property close by with the room I requested. The rate was a little higher, but they offered a credit in order to match the rate of the first property. I don't know if there was a leak or not, but I find it suspicious that they had trouble finding my reservation. Plus, given other negative reviews regarding room requests, I think they just dropped the ball. It would have been totally different if, when I reserved the room, I would have been told that there was no guarantee I would get that type of room. Instead I was told I would not have any problems.Sorry this is such a long review. Bottom line: If you need a certain type of room DO NOT TRUST that they will have it for you upon check in. Even if you book directly with them. If you stay here, hope that everything goes smoothly, because management DOES NOT try to help out or accommodate in any way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r152751028-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152751028</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>TownePlace Perfect, With a Friendly and Welcoming Staff</t>
+  </si>
+  <si>
+    <t>This is a great location for any business northwest of the center; and still inside the loop.  Given Houston's traffic; this can be a great feature in of itself.  While I'm not sure of the age of the property; it's clearly had a renewal in fairly recent past.  Most rooms have one bedroom; and rates are extremely competitive.  The kitchen is spartan but equipped, the property overall; very well kept.Our stay was one month; so we got to meet everyone at every time of day and night.  High marks all around.  Management is visible, responsive and friendly.  Desk personnel and housekeeping are the best.  Every hotel has the capacity to be efficient, not every hotel can be friendly and efficient.  These folks have it.  This property is worth your business for a comfortable stay, long or short.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>This is a great location for any business northwest of the center; and still inside the loop.  Given Houston's traffic; this can be a great feature in of itself.  While I'm not sure of the age of the property; it's clearly had a renewal in fairly recent past.  Most rooms have one bedroom; and rates are extremely competitive.  The kitchen is spartan but equipped, the property overall; very well kept.Our stay was one month; so we got to meet everyone at every time of day and night.  High marks all around.  Management is visible, responsive and friendly.  Desk personnel and housekeeping are the best.  Every hotel has the capacity to be efficient, not every hotel can be friendly and efficient.  These folks have it.  This property is worth your business for a comfortable stay, long or short.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r131865740-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131865740</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is perfect, for a short or long stay. Location is perfect, staffs are friendly, rooms are spacious and clean. This is what i call home away from home. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r122427153-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122427153</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is very nice. I like that it is close to downtown/ the Galleria and restaurants.... The room was very nice.....Will stay again when I return to Houston.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r117971469-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117971469</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Long Business Stay (11 months) And Pretty much satisfied</t>
+  </si>
+  <si>
+    <t>I was on a mid-term work assignment at Houston and selected this hotel owing to its proximity to my work place and in suite kitchen facility. And I ended up staying for slightly more than 11 months .. and overall it was a pretty good stay (guess my stay duration vouches for that :D )Some things that could improve are: 1) Internet Speed available in the hotel .. although it is free, but during the weekdays when the hotel is mostly full, the speeds are very slow .. 2) Breakfast available can be improved to have hot breakfast too like eggs, etcOverall would surely go back there and would like to thank the hotel employees for being very helpful and courteous - Sarah, Diane, Amber, Stephanie, LeonardMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>I was on a mid-term work assignment at Houston and selected this hotel owing to its proximity to my work place and in suite kitchen facility. And I ended up staying for slightly more than 11 months .. and overall it was a pretty good stay (guess my stay duration vouches for that :D )Some things that could improve are: 1) Internet Speed available in the hotel .. although it is free, but during the weekdays when the hotel is mostly full, the speeds are very slow .. 2) Breakfast available can be improved to have hot breakfast too like eggs, etcOverall would surely go back there and would like to thank the hotel employees for being very helpful and courteous - Sarah, Diane, Amber, Stephanie, LeonardMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r6087262-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6087262</t>
+  </si>
+  <si>
+    <t>11/07/2006</t>
+  </si>
+  <si>
+    <t>Wonderful Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>This Marriott  was awesome, beautiful, clean, ect. etc. etc. This place is flawless, i really enjoyed my stay, the hotel staff was just so  friendly  its is so close to many fine restraunts and many strip malls, so if you ever stay in northwest Houston this is the place, only about a 20 minute drive to Hobby airport.</t>
+  </si>
+  <si>
+    <t>November 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1433,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1465,2613 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+      <c r="L11" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>164</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>210</v>
+      </c>
+      <c r="J22" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>214</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>235</v>
+      </c>
+      <c r="X25" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>239</v>
+      </c>
+      <c r="J26" t="s">
+        <v>240</v>
+      </c>
+      <c r="K26" t="s">
+        <v>241</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>243</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>243</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>267</v>
+      </c>
+      <c r="O30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>271</v>
+      </c>
+      <c r="J31" t="s">
+        <v>272</v>
+      </c>
+      <c r="K31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L31" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>275</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>292</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>305</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>306</v>
+      </c>
+      <c r="X36" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" t="s">
+        <v>318</v>
+      </c>
+      <c r="K38" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>322</v>
+      </c>
+      <c r="J39" t="s">
+        <v>323</v>
+      </c>
+      <c r="K39" t="s">
+        <v>324</v>
+      </c>
+      <c r="L39" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>326</v>
+      </c>
+      <c r="O39" t="s">
+        <v>305</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>328</v>
+      </c>
+      <c r="J40" t="s">
+        <v>329</v>
+      </c>
+      <c r="K40" t="s">
+        <v>330</v>
+      </c>
+      <c r="L40" t="s">
+        <v>331</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>332</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" t="s">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s">
+        <v>338</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>339</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_656.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_656.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r613511680-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107957</t>
+  </si>
+  <si>
+    <t>613511680</t>
+  </si>
+  <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>Older building, but 5 star staff.</t>
+  </si>
+  <si>
+    <t>The building is on the older side, the building only has one elevator, which was on the other side of the building from our room. With that said though the premises are clean and inviting. What really made this experience very good were the staff. Particularly the manager, Ali who is unfailingly friendly and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ali K, Assistant General Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>The building is on the older side, the building only has one elevator, which was on the other side of the building from our room. With that said though the premises are clean and inviting. What really made this experience very good were the staff. Particularly the manager, Ali who is unfailingly friendly and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r591294000-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591294000</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros and Cons </t>
+  </si>
+  <si>
+    <t>Pros:- Good location! Close to a lot of restaurants and shopping- Clean- Small but inviting lobby with coffee, hard candy, and cookies available- Relatively quiet- Complimentary breakfastCons- I passed by it, difficult to see from road. Located behind Denny’s- The photos are deceiving! There is no pool, but rather a very small hot tub with no lock, and broken jetsMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Colin K, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Pros:- Good location! Close to a lot of restaurants and shopping- Clean- Small but inviting lobby with coffee, hard candy, and cookies available- Relatively quiet- Complimentary breakfastCons- I passed by it, difficult to see from road. Located behind Denny’s- The photos are deceiving! There is no pool, but rather a very small hot tub with no lock, and broken jetsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r573849483-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573849483</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Loved it!!</t>
+  </si>
+  <si>
+    <t>Such a nice hotel. It was clean, it was quiet, &amp; the front desk staff was very friendly &amp; helpful. We ended up staying an additional night simply because we enjoyed it so much. Our room was nice &amp; the kitchenette came in handy. I’d absolutely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Colin K, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2018</t>
+  </si>
+  <si>
+    <t>Such a nice hotel. It was clean, it was quiet, &amp; the front desk staff was very friendly &amp; helpful. We ended up staying an additional night simply because we enjoyed it so much. Our room was nice &amp; the kitchenette came in handy. I’d absolutely stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r570251634-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107957</t>
-  </si>
-  <si>
     <t>570251634</t>
   </si>
   <si>
@@ -177,9 +264,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Colin K, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded April 2, 2018</t>
   </si>
   <si>
@@ -237,9 +321,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded November 14, 2017</t>
   </si>
   <si>
@@ -249,6 +330,51 @@
     <t>Was first placed in a room just off from the lobby which was noisy from the sound carrying directly to our room. We asked to be moved to the 3rd floor to get away from the noise.  They were good to move us.  We found the room to be vary musty as was the room our friends were given.  We were able to clear most of the smell by putting a freshener on the room air conditioner.  Our friends weren't so lucky.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r538628229-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538628229</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Great Value.</t>
+  </si>
+  <si>
+    <t>Had a recent weekend stay here and the price was so low I was worried about it when I made the reservation.  But it was a Marriott property so I figured it couldn't be all that bad.  I was pleasantly surprised, it turned out to be a great value.  Room was clean, staff was friendly and the stay was trouble free.  I could have paid more and gotten less somewhere else.  I would stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r530664986-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530664986</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Overall very nice place to stay for extended work trip.  Staff attentive, rooms clean, quiet stay with no problems to report.  Kitchen area well stocked with dishes, etc..  Stay away from the highway that runs in front of it construction ick....Plan on taking back roads.  Brick Oven Tavern across the street had excellent food and service.  Breakfast at hotel ok although it was not ready before I left for work....Stay away from the Denny's across the parking lot (it was pitiful).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Overall very nice place to stay for extended work trip.  Staff attentive, rooms clean, quiet stay with no problems to report.  Kitchen area well stocked with dishes, etc..  Stay away from the highway that runs in front of it construction ick....Plan on taking back roads.  Brick Oven Tavern across the street had excellent food and service.  Breakfast at hotel ok although it was not ready before I left for work....Stay away from the Denny's across the parking lot (it was pitiful).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r507595745-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -330,6 +456,60 @@
     <t>Hotel is very convenient walk to Twin Peaks and Denny's restaurants across the parking lot, with more restaurants and shops just down the street. I had a decent room. The elevator is a bit slow, though.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r472262931-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472262931</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Very congested and tight areas</t>
+  </si>
+  <si>
+    <t>We visited as a family of 4 and booked a room with a kitchenette, 1 queen bed and a sofa bed for the kids. However, the room was extremely congested with no room for anyone to move around. The hotel itself seems to have been recently remodeled but whoever designed the spaces didnt factor in the comfort factor for the guests. The same compactness stretches to the breakfast area - another extremely congested area with no room to spread around. The hotel staff were lukewarm for the most part, especially at the breakfast. If you are traveling from Dallas on 45 south, our GPS took us through some pretty shady areas to get there and that was a little unnerving for us, especially since we reached there around 9 pm.The hotel was not worth the money we paid for and probably wont earn our business again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>We visited as a family of 4 and booked a room with a kitchenette, 1 queen bed and a sofa bed for the kids. However, the room was extremely congested with no room for anyone to move around. The hotel itself seems to have been recently remodeled but whoever designed the spaces didnt factor in the comfort factor for the guests. The same compactness stretches to the breakfast area - another extremely congested area with no room to spread around. The hotel staff were lukewarm for the most part, especially at the breakfast. If you are traveling from Dallas on 45 south, our GPS took us through some pretty shady areas to get there and that was a little unnerving for us, especially since we reached there around 9 pm.The hotel was not worth the money we paid for and probably wont earn our business again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r467151741-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467151741</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Best place for Business trips.</t>
+  </si>
+  <si>
+    <t>Rooms had a well equipped kitchen and beautiful furniture with all the necessary amenities. You have a washing machine and a dryer available for $1 each. I really liked the location as it was easily accessible to the total mall behind the hotel. You also have a Indian restaurant newly opened serves the best of the Indian cuisine in US, Texas. rates are reasonable and you get good breakfast for the non-veggies.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2017</t>
+  </si>
+  <si>
+    <t>Rooms had a well equipped kitchen and beautiful furniture with all the necessary amenities. You have a washing machine and a dryer available for $1 each. I really liked the location as it was easily accessible to the total mall behind the hotel. You also have a Indian restaurant newly opened serves the best of the Indian cuisine in US, Texas. rates are reasonable and you get good breakfast for the non-veggies.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r466012671-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -411,6 +591,62 @@
     <t>We went as couples for a Men's Conferance and our stay was awesome. The rooms were very clean and it was just a nice experience. The hotel staff was great one especially was Valleen she took good care of our needs and she made sure we were comfortable. This place need a 10 star rating More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r445186349-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445186349</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here once before </t>
+  </si>
+  <si>
+    <t>For some reason I really like the 1 bedroom suite and kitchen set up. I don't feel so cramped. The rooms were clean and nice and the staff accommodating. Excellent full breakfast and it's complimentary! Other than construction going on, it's an easy in and out and restaurants all nearby. Quiet and off the highway a little. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>For some reason I really like the 1 bedroom suite and kitchen set up. I don't feel so cramped. The rooms were clean and nice and the staff accommodating. Excellent full breakfast and it's complimentary! Other than construction going on, it's an easy in and out and restaurants all nearby. Quiet and off the highway a little. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r427429385-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427429385</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>When I checked in, I received a great greeting at the front desk.  I quickly received two key cards to my room, then I asked about the bedding for the pull-out sofa that was to be in my suite.  The young lady explained that the bedding should be in the room already, but advised that the beds have three pillows, so if I have more than three people in the room, I will need extra pillows and towels.  I let her know that I have four occupants (including myself) in the room, so she said she will run and extra pillow and towels right over to the room.  Sure enough, within 5 minutes, she was at the door with the extra pillow and towels!  The hotel is right off of busy Hwy 290 (Northwest Freeway), but I did not hear any noise from the highway at all.  There is a shopping center right down the road with a Target store, a movie theater, a number of restaurants, and more.
+The room itself was nice and clean.  I stayed in a 1 bedroom suite, which had a separate bedroom (with a locking door) from the living room.  That was a really nice setup.  The living room had a love seat with a pull out mattress.  Obviously, the mattress was thin as all pull outs are, but the hotel did include a thin mattress topper with the bedding.  That didn't provide a...When I checked in, I received a great greeting at the front desk.  I quickly received two key cards to my room, then I asked about the bedding for the pull-out sofa that was to be in my suite.  The young lady explained that the bedding should be in the room already, but advised that the beds have three pillows, so if I have more than three people in the room, I will need extra pillows and towels.  I let her know that I have four occupants (including myself) in the room, so she said she will run and extra pillow and towels right over to the room.  Sure enough, within 5 minutes, she was at the door with the extra pillow and towels!  The hotel is right off of busy Hwy 290 (Northwest Freeway), but I did not hear any noise from the highway at all.  There is a shopping center right down the road with a Target store, a movie theater, a number of restaurants, and more.The room itself was nice and clean.  I stayed in a 1 bedroom suite, which had a separate bedroom (with a locking door) from the living room.  That was a really nice setup.  The living room had a love seat with a pull out mattress.  Obviously, the mattress was thin as all pull outs are, but the hotel did include a thin mattress topper with the bedding.  That didn't provide a lot of extra cushion from the springs in the pull out mattress, but every bit counts.  All of the equipment in the room worked correctly, although there was no stopper for the kitchen sink.  No big deal for my needs, but worth noting.  The bathroom was stocked with Paul Mitchell products (soap, lotion, shampoo, conditioner, and body wash).There is a free breakfast at this hotel.  My family took advantage of it on our last morning there and the breakfast area manager was very delightful.  She even went to the back and got some chocolate chips when she saw I was making a waffle for my kids.  She certainly knows what kids like... those melted chocolate chips inside the waffle was a hit!  Also on the menu that morning was pork sausage patties, turkey sausage patties, raisin bread, bagels, fried eggs, a few cereal options, a few yogurt options, granola, and a couple different muffin choices.  There was also milk, orange juice, apple juice, cranberry juice, and coffee with french vanilla and hazelnut creamer options to choose from.As for the bad parts of the review, there aren't many at all.  I was slightly surprised by the size of the televisions, although there was one in the bedroom and one in the living room (which is not a bad thing at all).  They are maybe 32" televisions at most.  I think I am just spoiled with seeing bigger TVs at recent hotels I have been to, so they just looked small.  I did find a spider hiding in a corner of the bedroom, but that just happens any and everywhere.  No big deal, again.  When I woke up after my first night of staying here, my back hurt.  I determined the problem was the pillow.  It was way too soft and my head simply sank into it.  Luckily, I found out that the pillows were not all the same.  There was one firm pillow in the room, and after switching to that pillow, I slept like a baby.  It would be nice if the pillows were labeled so people would know which is which.  The worst part of the stay had nothing to do with the hotel itself, really.  There is major construction going on with the frontage road of Hwy 290 (Northwest Freeway).  Therefore, getting into and out of the hotel to and from the convenient shopping center up the street was kind of a hassle.All in all, stay here!  You will not be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>When I checked in, I received a great greeting at the front desk.  I quickly received two key cards to my room, then I asked about the bedding for the pull-out sofa that was to be in my suite.  The young lady explained that the bedding should be in the room already, but advised that the beds have three pillows, so if I have more than three people in the room, I will need extra pillows and towels.  I let her know that I have four occupants (including myself) in the room, so she said she will run and extra pillow and towels right over to the room.  Sure enough, within 5 minutes, she was at the door with the extra pillow and towels!  The hotel is right off of busy Hwy 290 (Northwest Freeway), but I did not hear any noise from the highway at all.  There is a shopping center right down the road with a Target store, a movie theater, a number of restaurants, and more.
+The room itself was nice and clean.  I stayed in a 1 bedroom suite, which had a separate bedroom (with a locking door) from the living room.  That was a really nice setup.  The living room had a love seat with a pull out mattress.  Obviously, the mattress was thin as all pull outs are, but the hotel did include a thin mattress topper with the bedding.  That didn't provide a...When I checked in, I received a great greeting at the front desk.  I quickly received two key cards to my room, then I asked about the bedding for the pull-out sofa that was to be in my suite.  The young lady explained that the bedding should be in the room already, but advised that the beds have three pillows, so if I have more than three people in the room, I will need extra pillows and towels.  I let her know that I have four occupants (including myself) in the room, so she said she will run and extra pillow and towels right over to the room.  Sure enough, within 5 minutes, she was at the door with the extra pillow and towels!  The hotel is right off of busy Hwy 290 (Northwest Freeway), but I did not hear any noise from the highway at all.  There is a shopping center right down the road with a Target store, a movie theater, a number of restaurants, and more.The room itself was nice and clean.  I stayed in a 1 bedroom suite, which had a separate bedroom (with a locking door) from the living room.  That was a really nice setup.  The living room had a love seat with a pull out mattress.  Obviously, the mattress was thin as all pull outs are, but the hotel did include a thin mattress topper with the bedding.  That didn't provide a lot of extra cushion from the springs in the pull out mattress, but every bit counts.  All of the equipment in the room worked correctly, although there was no stopper for the kitchen sink.  No big deal for my needs, but worth noting.  The bathroom was stocked with Paul Mitchell products (soap, lotion, shampoo, conditioner, and body wash).There is a free breakfast at this hotel.  My family took advantage of it on our last morning there and the breakfast area manager was very delightful.  She even went to the back and got some chocolate chips when she saw I was making a waffle for my kids.  She certainly knows what kids like... those melted chocolate chips inside the waffle was a hit!  Also on the menu that morning was pork sausage patties, turkey sausage patties, raisin bread, bagels, fried eggs, a few cereal options, a few yogurt options, granola, and a couple different muffin choices.  There was also milk, orange juice, apple juice, cranberry juice, and coffee with french vanilla and hazelnut creamer options to choose from.As for the bad parts of the review, there aren't many at all.  I was slightly surprised by the size of the televisions, although there was one in the bedroom and one in the living room (which is not a bad thing at all).  They are maybe 32" televisions at most.  I think I am just spoiled with seeing bigger TVs at recent hotels I have been to, so they just looked small.  I did find a spider hiding in a corner of the bedroom, but that just happens any and everywhere.  No big deal, again.  When I woke up after my first night of staying here, my back hurt.  I determined the problem was the pillow.  It was way too soft and my head simply sank into it.  Luckily, I found out that the pillows were not all the same.  There was one firm pillow in the room, and after switching to that pillow, I slept like a baby.  It would be nice if the pillows were labeled so people would know which is which.  The worst part of the stay had nothing to do with the hotel itself, really.  There is major construction going on with the frontage road of Hwy 290 (Northwest Freeway).  Therefore, getting into and out of the hotel to and from the convenient shopping center up the street was kind of a hassle.All in all, stay here!  You will not be disappointed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r422249408-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -468,6 +704,51 @@
     <t>My husband and I stayed in Houston for a few days and this hotel was just what we needed. It was close to the interstate and a few restaurants you could walk to. The breakfast was great and the staff at the desk were very friendly and gave great directions! The only downside to our stay, which had nothing to do with the hotel,is that there is construction going on right outside of it on the road so it was hard to find at first. We had to loop around and try a second time to get to them. Otherwise it was great and we would recommend this hotel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r394104498-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394104498</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Very Pleased with Comfortable Stay</t>
+  </si>
+  <si>
+    <t>The hotel is located off busy freeway but we were not bothered by street noise at all. There are several places to eat nearby; 3-4 within walking distance. The hotel, room and lobby were welcoming and done in modern décor. The suite was clean, spacious and in great condition. Bed and linens were very comfortable and we were pleased to have queen sized pillows; very comfy! However, the TV is placed in the middle of the room and is hard to watch from both the bed and the couch.  Bathroom was clean, roomy and had a large enough vanity for all our toiletries plus a couple of deep drawers. Complementary breakfast included cheese omelets, bacon, hot oatmeal as well as all the continental fare. Staff at breakfast was very friendly and helpful.  The only real drawback to this hotel is that there is no pool, and it is the reason I gave it a 4 rather than a 5. My son always looks forward to swimming when we travel and this is the reason we probably would not stay here again. It's a shame because we really enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is located off busy freeway but we were not bothered by street noise at all. There are several places to eat nearby; 3-4 within walking distance. The hotel, room and lobby were welcoming and done in modern décor. The suite was clean, spacious and in great condition. Bed and linens were very comfortable and we were pleased to have queen sized pillows; very comfy! However, the TV is placed in the middle of the room and is hard to watch from both the bed and the couch.  Bathroom was clean, roomy and had a large enough vanity for all our toiletries plus a couple of deep drawers. Complementary breakfast included cheese omelets, bacon, hot oatmeal as well as all the continental fare. Staff at breakfast was very friendly and helpful.  The only real drawback to this hotel is that there is no pool, and it is the reason I gave it a 4 rather than a 5. My son always looks forward to swimming when we travel and this is the reason we probably would not stay here again. It's a shame because we really enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r381949233-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381949233</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>As always I stay at Marriott property every chance I get, the main reason, the Hotels are always clean, customer service second to none, bed are always comfortable, It's always somewhere that's worth every penny. BEWARE OF MAJOR CONSTRUCTION IN THE AREA.MoreShow less</t>
+  </si>
+  <si>
+    <t>As always I stay at Marriott property every chance I get, the main reason, the Hotels are always clean, customer service second to none, bed are always comfortable, It's always somewhere that's worth every penny. BEWARE OF MAJOR CONSTRUCTION IN THE AREA.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r381582591-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -483,9 +764,6 @@
     <t>I had a last minute change in hotels and was able to use my points to book.Ms Rita and all the staff were extremely nice. They offered me free bottled waters as well which is a nice treat int he Texas heat. They also give Platinum members a goodie bag with water and chocolates! Room was clean and comfortable. So long as rates are reasonable here I will stay here when in Houston.You can walk to Brick House next door which is my main watering hole in Houston so this is a convenient location. There are other restaurants nearby as well.Only downside of NW 290 is the construction but if you know how to get around the back way you will be fine.MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>TMIHospitality1, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded July 15, 2016</t>
   </si>
   <si>
@@ -540,6 +818,42 @@
     <t>The hotel itself is very good with a very comfortable bed and very clean. The front desk staff is incredible with my experience being second to none. Upon arrival at 11:00 PM I was greeted by a very friendly clerk who not only made in the check in experience very good but arranged for a taxi for me the next morning. To my surprise I got a wake up call 1/2 hour before my cab was to arrive just to remind me of the time of pick up. Great service. Only down side is breakfast was just ok. The round prepared egg should have been eliminated for scrambled, as the little white hockey puck-like eggs were not very enticing.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r327031409-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327031409</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Staying for a month faultless stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staying for a month, immaculate. Friendly helpful staff. Busy place but always quiet. Loads of places to eat nearby and not too far for the Walmart for everything else. Would have gave 5stars but the breakfast lets it down. It's not bad totally edible but not my cup of tea </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r324920949-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324920949</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>Stayed overnight before driving to College Station, TX for a football game. Good location, great staff, clean, with several restaurants near by. Would recommend it highly. On Hwy 290 as you drive to College Station. Also, near to downtown</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r298581665-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -606,6 +920,51 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r279286377-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279286377</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>My wife and I spent three nights here on a recent business trip to the area. This property is very clean and well maintained. The staff are all very friendly and engaging. Our room actually resembled a small version of a Residence Inn suite. It has a full sized refrigerator, two burner range top, dish washer and full sized microwave oven. The décor is comfortable with a dining table large enough to seat two comfortably. The complimentary Internet was adequate for email and basic web browsing. It was not really good enough for streaming videos. If you are a Gold or Platinum member you can get the premium Internet for free, otherwise the cost was about $5.00.The gardens and grounds were well maintained. There a several nice restaurants directly adjacent to this property and within short walking distance. I particularly recommend the Brick House Tavern and Pub next door.The conference we attended was held at the Region 4 Service Center just a block or so away. We look forward to staying here again next year when we return for this event.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I spent three nights here on a recent business trip to the area. This property is very clean and well maintained. The staff are all very friendly and engaging. Our room actually resembled a small version of a Residence Inn suite. It has a full sized refrigerator, two burner range top, dish washer and full sized microwave oven. The décor is comfortable with a dining table large enough to seat two comfortably. The complimentary Internet was adequate for email and basic web browsing. It was not really good enough for streaming videos. If you are a Gold or Platinum member you can get the premium Internet for free, otherwise the cost was about $5.00.The gardens and grounds were well maintained. There a several nice restaurants directly adjacent to this property and within short walking distance. I particularly recommend the Brick House Tavern and Pub next door.The conference we attended was held at the Region 4 Service Center just a block or so away. We look forward to staying here again next year when we return for this event.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r276350617-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>276350617</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Average business hotel, breakfast needs strong improvement</t>
+  </si>
+  <si>
+    <t>Was booked there as the closest hotel to business meetings.  It is an average business hotel , fairly well kept although the room carpet deserved a professional cleaning.Welcoming staff at reception does its job to make you feel good during your stay.Contrary to other comments, I do not believe that breakfast is great at all: processed food, powder eggs, watery coffee, and plastics all over.  There definitely is lots of room to improve for such a rate!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Was booked there as the closest hotel to business meetings.  It is an average business hotel , fairly well kept although the room carpet deserved a professional cleaning.Welcoming staff at reception does its job to make you feel good during your stay.Contrary to other comments, I do not believe that breakfast is great at all: processed food, powder eggs, watery coffee, and plastics all over.  There definitely is lots of room to improve for such a rate!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r273819584-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -621,9 +980,6 @@
     <t xml:space="preserve">Just finished a week long stay here and was quite pleased. The staff here was great and the room was nice. I really liked the fact that it has a LOT of restaurants within walking distance of the hotel. The breakfast offerings were pretty standard ( nothing special ) and the "pool" was really a hot tub, but the fitness center had a nice assortment of free weights plus a nice treadmill   Overall, it was a good place to stay. I would recommend it. </t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r268305037-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -663,6 +1019,36 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r259091192-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259091192</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>TownePlace Suites Houston Central/Northwest Freeway</t>
+  </si>
+  <si>
+    <t>The customer service at this hotel is top notch. The employees go out of their way to make sure your visit is the best.  The hotel is very clean, has a great hot breakfast and is located close to many restaurants and other attractions on the NW side of Houston. The only drawback is US 290 is nearby and under construction. Travel congestion is likely on this freeway during week days (especially morning afternoon rush hours).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r254343805-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254343805</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Excellent quiet stay convenient to everything</t>
+  </si>
+  <si>
+    <t>Excellent staff, service &amp; amenities. Security is very diligent which made me feel extremely comfortable. Walking distance to movies, food &amp; shopping. Extremely quiet considering its location. Will definitely stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r251273212-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -732,6 +1118,45 @@
     <t>We chose this hotel after a return from a cruise. The only thing is it is too far from the cruise port. I liked it because of the suite. It has a kitchenette and couch. The front desk was very helpful in answering all of our questions. The hotel is very quiet. They serve a free breakfast. Plenty of fresh towels.You will need a car to get around.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r246058269-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246058269</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Good "No Frills" Hotel</t>
+  </si>
+  <si>
+    <t>Overall, nothing fancy but a great experience and location.Lobby - Basic but adequate.  Coffee and hot water for guests, small dinning area (breakfast), and small shop with basic food/drink items and toiletries for sale.Amenities - Gym is small but functional, treadmill and elliptical, free weights and bench, does the job if there is room.  Guest laundry and small business center available.Customer Service - Fantastic.  Check ins have been smooth, they have been able to accommodate room requests the last 3 stays.  They have also been flexible with late check outs.  Couldn't ask for much more.Location - The best part in my opinion, as you can walk to a good half dozen restaurants for food and drink, which comes in handy to avoid Houston traffic.Rooms - Kitchenette with full size refrigerator is great.  Good wireless internet connections.  Bed and couch were comfy, desk was functional for getting work done.  Only minor complaint I can make is that one remote control in the room was not working (I just used one controller for both rooms) and toilet would refill about every 30 minutes for 15 seconds or so.  Again, very minor issues that were no big deal.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Overall, nothing fancy but a great experience and location.Lobby - Basic but adequate.  Coffee and hot water for guests, small dinning area (breakfast), and small shop with basic food/drink items and toiletries for sale.Amenities - Gym is small but functional, treadmill and elliptical, free weights and bench, does the job if there is room.  Guest laundry and small business center available.Customer Service - Fantastic.  Check ins have been smooth, they have been able to accommodate room requests the last 3 stays.  They have also been flexible with late check outs.  Couldn't ask for much more.Location - The best part in my opinion, as you can walk to a good half dozen restaurants for food and drink, which comes in handy to avoid Houston traffic.Rooms - Kitchenette with full size refrigerator is great.  Good wireless internet connections.  Bed and couch were comfy, desk was functional for getting work done.  Only minor complaint I can make is that one remote control in the room was not working (I just used one controller for both rooms) and toilet would refill about every 30 minutes for 15 seconds or so.  Again, very minor issues that were no big deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r245870649-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245870649</t>
+  </si>
+  <si>
+    <t>12/25/2014</t>
+  </si>
+  <si>
+    <t>Houston Trip</t>
+  </si>
+  <si>
+    <t>The stay was great. As always Marriot is good with clean rooms, clean sheets and free breakfast.The room in particular was were cozy.But, for a hotel with kitchen, it could have had some more utensils.MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay was great. As always Marriot is good with clean rooms, clean sheets and free breakfast.The room in particular was were cozy.But, for a hotel with kitchen, it could have had some more utensils.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r226349706-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -741,9 +1166,6 @@
     <t>09/02/2014</t>
   </si>
   <si>
-    <t>Home away from home</t>
-  </si>
-  <si>
     <t>I've been in town for work and living out of this hotel for the majority of the summer. The staff has been great! Very polite and helpful with whatever I've asked of them, as well as maintaining a very clean hotel. The location isn't the greatest (there isn't a whole lot going on in this corner of Houston), but they have gone out of their way to make this feel as close to home as a long term stay can. I would definitely recommend this location to someone in town on business. There are several average restaurant options nearby, as well as retail for those inclined to make their own meals. The gym is adequate, with free weights and a treadmill, but convenient as it's open 24/7.MoreShow less</t>
   </si>
   <si>
@@ -789,6 +1211,45 @@
     <t>Great staff, very clean. Offers free use of gas bbq grill, jacuzzi,  dishwasher in room. Extremely clean. No issues! Snack bar. Free use of nice computer.  Free wifi. Nice outside area for grilling. Gazebo.  Safe &amp; secure. Great hot/cold breakfast complimentary</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r202155101-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202155101</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Incredible bang for the buck</t>
+  </si>
+  <si>
+    <t>Stayed here for one night with my wife en route to a tiny Texas town for some Saturday morning BBQ.  Great location NW of the city -- probably hard to recommend for a long stay, but if you're looking to crash for the night somewhere, this is perfect.  Several restaurants and watering holes nearby. Not a fancy hotel, but it was quiet, used its space well, and had a full refrigerator and living area.  The staff was terrific -- kudos for GM Pamela for training her people so well.  If I were to criticize one thing, it was the bed -- it was a little hard for my taste.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r189022428-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189022428</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Great staff! Treated like a VIP even though I'm not!</t>
+  </si>
+  <si>
+    <t>I booked a 1-bedroom suite with full kitchen for family in town for Christmas.  The rate was very fair and included breakfast and free wifi which is always appreciated.  I personally did not stay in the room but my brother/sis-in-law/kids said they enjoyed it and had no issues.  I did interact with the front desk to check them in as I wanted to receive the Marriott points for the stay (which I should since I was paying for it!).  Staff was very helpful and pleasant even though I kept coming back several times to make changes (adding additional names to reservation, changing payment method to a gift card, etc.). Also, the hand written personal welcome note from the GM was a nice touch and made my brother think I was a VIP getting special treatment.  I do travel quite a bit but don't usually stay at Marriott properties so I have no elite status or anything but I received a warmer welcome here than at some of the hotels where I am elite.At the end of the day, a hotel room is just that and if it's not bad, then it's good.  But it's the people that make the difference.  All things being equal, I rather stay here where I feel my business is appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I booked a 1-bedroom suite with full kitchen for family in town for Christmas.  The rate was very fair and included breakfast and free wifi which is always appreciated.  I personally did not stay in the room but my brother/sis-in-law/kids said they enjoyed it and had no issues.  I did interact with the front desk to check them in as I wanted to receive the Marriott points for the stay (which I should since I was paying for it!).  Staff was very helpful and pleasant even though I kept coming back several times to make changes (adding additional names to reservation, changing payment method to a gift card, etc.). Also, the hand written personal welcome note from the GM was a nice touch and made my brother think I was a VIP getting special treatment.  I do travel quite a bit but don't usually stay at Marriott properties so I have no elite status or anything but I received a warmer welcome here than at some of the hotels where I am elite.At the end of the day, a hotel room is just that and if it's not bad, then it's good.  But it's the people that make the difference.  All things being equal, I rather stay here where I feel my business is appreciated.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r187955873-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -822,9 +1283,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I stayed in a one bedroom suite for five nights and it was fine. The room was basic and clean but showed a bit of wear. It was surprisingly quiet for a room facing the freeway. For a solo traveler, it was a good size space but it would be tough for more than one as there was only one chair at the table/desk so you wouldn't be able to eat together. Speaking of eating, the location was fantastic with lots of dining options within walking distance and a movie theater next door. Breakfast was heat and serve items with a waffle maker. I was fine with that as I usually just eat a bagel and a piece of fruit for breakfast. The staff was fantastic. They greet each guest with a smile and seem genuinely glad you decided to stay with them.More</t>
   </si>
   <si>
@@ -846,6 +1304,39 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r173432484-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173432484</t>
+  </si>
+  <si>
+    <t>08/21/2013</t>
+  </si>
+  <si>
+    <t>Good Location for me</t>
+  </si>
+  <si>
+    <t>I had a client training about 5 miles from here on Northwest Freeway, so this worked out well.  Lots of places to eat &amp; Denny's is literally within walking distance.  I asked the hotel lobby person about Twin Peaks &amp; she didn't know anything about it.  I walked in there &amp; it was a knock-off of Hooters; not exactly the kind of place I would normally walk into. She didn't seem to know too much about anything really, including where to find the billing approval my company had faxed over before I arrived.  So, a little training would help.Also, a Cinemark Theaters is very close by, as well as a variety of stores.The room was fine for one person.  I'm including a picture of the bathroom (please excuse my mess) to show you how small it is &amp; that I couldn't possibly see 2 people sharing this bathroom.  I could barely fit myself in there &amp; close the door while using the toilet!  I wonder if all the bathrooms are this small or just the studios.There was a Sunday paper waiting in my room when I arrived, accompanied by a lovely handwritten note from the Assistant General Manager; very nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a client training about 5 miles from here on Northwest Freeway, so this worked out well.  Lots of places to eat &amp; Denny's is literally within walking distance.  I asked the hotel lobby person about Twin Peaks &amp; she didn't know anything about it.  I walked in there &amp; it was a knock-off of Hooters; not exactly the kind of place I would normally walk into. She didn't seem to know too much about anything really, including where to find the billing approval my company had faxed over before I arrived.  So, a little training would help.Also, a Cinemark Theaters is very close by, as well as a variety of stores.The room was fine for one person.  I'm including a picture of the bathroom (please excuse my mess) to show you how small it is &amp; that I couldn't possibly see 2 people sharing this bathroom.  I could barely fit myself in there &amp; close the door while using the toilet!  I wonder if all the bathrooms are this small or just the studios.There was a Sunday paper waiting in my room when I arrived, accompanied by a lovely handwritten note from the Assistant General Manager; very nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r169357079-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169357079</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>My stay was long from july 12 til aug 8, 2013     My husband is a US MARINE  in Galveston so I spend alot time to see hin in Texas, as I live in Ga. Everyone here has been super nice.and rooms always clean, if you want a clean place and great people this is the hotel to be at.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r164662167-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -895,6 +1386,57 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r158066266-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158066266</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>OK room, good location</t>
+  </si>
+  <si>
+    <t>Room was well equipped and clean, although the carpet was a bit smelly and the mattress was sagging. We also had some problems with the TV: we had to jiggle the cable connection to make it work, as demonstrated in person by one of the nice people at the front desk.  Hotel is close to lots of stores and restaurants. Breakfast had the usual scrambled eggs but nice yogurt and tasty raisin bread. If you follow the indications in the hotel for the pool, you will end up at... a whirpool. But it was a cold day, so we did not mind.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>HoustonTownePlaceGM, General Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2013</t>
+  </si>
+  <si>
+    <t>Room was well equipped and clean, although the carpet was a bit smelly and the mattress was sagging. We also had some problems with the TV: we had to jiggle the cable connection to make it work, as demonstrated in person by one of the nice people at the front desk.  Hotel is close to lots of stores and restaurants. Breakfast had the usual scrambled eggs but nice yogurt and tasty raisin bread. If you follow the indications in the hotel for the pool, you will end up at... a whirpool. But it was a cold day, so we did not mind.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r154532002-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154532002</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Convenient location to restaurants, standard rooms</t>
+  </si>
+  <si>
+    <t>If you are traveling for business and will be staying a long time, this is a good place convenient to lots of restaurants.  If you don't like to eat out all the time, there is a full size fridge, dishwasher, and small stove to cook your own meals.  The room is large, but the bed is walled in with not much space on each side of it.  That does allow a larger area in the middle of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonTownePlaceGM, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>If you are traveling for business and will be staying a long time, this is a good place convenient to lots of restaurants.  If you don't like to eat out all the time, there is a full size fridge, dishwasher, and small stove to cook your own meals.  The room is large, but the bed is walled in with not much space on each side of it.  That does allow a larger area in the middle of the room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r154383547-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
@@ -935,9 +1477,6 @@
 On the day of our arrival, we got into Houston a little early so I called the hotel to inquire about an early check-in. The person I spoke with had trouble finding my reservation, then when given the confirmation number he "found" it but said the room I requested wasn't available. They did have...I can't comment on the aesthetics or cleanliness of the place itself as I never actually made it there. But I can say that customer service at this location is terrible. I had called the hotel directly to reserve a room with 2 beds plus pull out sofa. I had seen from reviews on other sites that people who had requested a particular type of room, such as I did, had issues with getting that room upon check-in. I called the hotel and expressed this concern to the front desk person. She stated that when people book through outside agencies, such as travelocity and such, that's when the issues may arise. Since I was booking directly through the hotel they could guarantee this type of room. I expressed several times that due to the number of people, ages, and gender that it was imperative we have 3 beds of some sort. She assured me I would have no problems.Let me make it clear that I called the hotel directly, not the 800- number for marriott, to book this, and guaranteed it with a credit card.On the day of our arrival, we got into Houston a little early so I called the hotel to inquire about an early check-in. The person I spoke with had trouble finding my reservation, then when given the confirmation number he "found" it but said the room I requested wasn't available. They did have a room with one bed and a pull out sofa. I was irritated, as I explained to him my conversation, including concerns, with the person with whom I reserved the room. He transferred me to the manager who told me there was nothing they could do, was unwilling to make any further accommodations, but was quick to cancel my reservation. His excuse for not having my room was that there was "a leak" the night before and 2 of those rooms were unavailable. So nice of them to cancel and not charge my credit card, but I am now in Houston, with no place to sleep. At this point I called Marriott's 800-number and spoke with customer service, who found me another Marriott property close by with the room I requested. The rate was a little higher, but they offered a credit in order to match the rate of the first property. I don't know if there was a leak or not, but I find it suspicious that they had trouble finding my reservation. Plus, given other negative reviews regarding room requests, I think they just dropped the ball. It would have been totally different if, when I reserved the room, I would have been told that there was no guarantee I would get that type of room. Instead I was told I would not have any problems.Sorry this is such a long review. Bottom line: If you need a certain type of room DO NOT TRUST that they will have it for you upon check in. Even if you book directly with them. If you stay here, hope that everything goes smoothly, because management DOES NOT try to help out or accommodate in any way.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Towneplace Suites Houston Brookhollow, responded to this reviewResponded March 19, 2013</t>
   </si>
   <si>
@@ -964,12 +1503,45 @@
     <t>This is a great location for any business northwest of the center; and still inside the loop.  Given Houston's traffic; this can be a great feature in of itself.  While I'm not sure of the age of the property; it's clearly had a renewal in fairly recent past.  Most rooms have one bedroom; and rates are extremely competitive.  The kitchen is spartan but equipped, the property overall; very well kept.Our stay was one month; so we got to meet everyone at every time of day and night.  High marks all around.  Management is visible, responsive and friendly.  Desk personnel and housekeeping are the best.  Every hotel has the capacity to be efficient, not every hotel can be friendly and efficient.  These folks have it.  This property is worth your business for a comfortable stay, long or short.MoreShow less</t>
   </si>
   <si>
-    <t>February 2013</t>
-  </si>
-  <si>
     <t>This is a great location for any business northwest of the center; and still inside the loop.  Given Houston's traffic; this can be a great feature in of itself.  While I'm not sure of the age of the property; it's clearly had a renewal in fairly recent past.  Most rooms have one bedroom; and rates are extremely competitive.  The kitchen is spartan but equipped, the property overall; very well kept.Our stay was one month; so we got to meet everyone at every time of day and night.  High marks all around.  Management is visible, responsive and friendly.  Desk personnel and housekeeping are the best.  Every hotel has the capacity to be efficient, not every hotel can be friendly and efficient.  These folks have it.  This property is worth your business for a comfortable stay, long or short.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r133337909-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133337909</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Amazing place to stay for business travel</t>
+  </si>
+  <si>
+    <t>Very nice place to stay, I stayed for more than a month here, very amiable staff, great breakfast and has all amenities required for a stay. Nothing fancy, but a very comfortable, clean and safe place. Surrounded by a number of restaurants and close proximity to the free way are pluses to this hotel. The staff are very courteous and caring.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r132341826-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132341826</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>A good, extended stay hotel</t>
+  </si>
+  <si>
+    <t>This is a decent extended-stay type hotel (and one of the cheapest ones using Marriott points in the area), a few miles north of downtown. Our room had a separate living and sleeping areas with a nice little kitchen (and a lot of utensils).The buffet breakfast was pretty standard and well stocked/fresh. There are also quite a few dining options nearby. Overall, a nice clean place and recommended for a few days stay and/or for families.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r131865740-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1594,45 @@
   </si>
   <si>
     <t>I was on a mid-term work assignment at Houston and selected this hotel owing to its proximity to my work place and in suite kitchen facility. And I ended up staying for slightly more than 11 months .. and overall it was a pretty good stay (guess my stay duration vouches for that :D )Some things that could improve are: 1) Internet Speed available in the hotel .. although it is free, but during the weekdays when the hotel is mostly full, the speeds are very slow .. 2) Breakfast available can be improved to have hot breakfast too like eggs, etcOverall would surely go back there and would like to thank the hotel employees for being very helpful and courteous - Sarah, Diane, Amber, Stephanie, LeonardMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r14331731-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14331731</t>
+  </si>
+  <si>
+    <t>03/16/2008</t>
+  </si>
+  <si>
+    <t>Nice service on front desk, but major problems with cleanliness</t>
+  </si>
+  <si>
+    <t>We had a good experience with the check in process and the front desk service, but the hotel have a problem cleaning rooms..  Yesterday we found the bathroom dirty and today we found the same.   We talked yesterday with supervisor and the problem was not solved.I can't recommend the hotel...</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r6838462-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>6838462</t>
+  </si>
+  <si>
+    <t>02/24/2007</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This is a fine hotel, right off the freeway, but far enough back to be quiet.  The staff is very friendly and there's a nice breakfast.  The room was a bit small, but we were there to sleep and get clean, and for that everything was quite good.  There's a kitchen, but beyond stashing water in the fridge, we didn't use it.  In the office they have a guest PC and printer you can use for free.  This saved a trip to Kinkos for those of us wanting to be in the 'A' group on Southwest.  One thing -- there's no sign for the hotel directly on the side road, so you have to know where it is (behind the Denny's).  Also, while the hotel is safe, we drove into the neighborhood behind it -- which I wouldn't recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>This is a fine hotel, right off the freeway, but far enough back to be quiet.  The staff is very friendly and there's a nice breakfast.  The room was a bit small, but we were there to sleep and get clean, and for that everything was quite good.  There's a kitchen, but beyond stashing water in the fridge, we didn't use it.  In the office they have a guest PC and printer you can use for free.  This saved a trip to Kinkos for those of us wanting to be in the 'A' group on Southwest.  One thing -- there's no sign for the hotel directly on the side road, so you have to know where it is (behind the Denny's).  Also, while the hotel is safe, we drove into the neighborhood behind it -- which I wouldn't recommend.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107957-r6087262-Towneplace_Suites_Houston_Brookhollow-Houston_Texas.html</t>
@@ -1574,7 +2185,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1635,13 +2246,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1653,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1675,34 +2286,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1714,13 +2325,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
         <v>74</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1736,58 +2347,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
         <v>83</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1803,34 +2408,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>91</v>
-      </c>
-      <c r="O6" t="s">
-        <v>63</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1885,26 +2490,20 @@
         <v>99</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
         <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1955,34 +2554,28 @@
         <v>4</v>
       </c>
       <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
         <v>109</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>110</v>
-      </c>
-      <c r="X8" t="s">
-        <v>111</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
@@ -1998,43 +2591,41 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
         <v>113</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>114</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>115</v>
       </c>
-      <c r="K9" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>118</v>
-      </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
         <v>4</v>
       </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2043,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2065,52 +2656,58 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>123</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>124</v>
       </c>
-      <c r="K10" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>127</v>
-      </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2126,54 +2723,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
         <v>131</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>132</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>133</v>
       </c>
-      <c r="K11" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" t="s">
-        <v>135</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>136</v>
-      </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -2210,33 +2805,37 @@
         <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2252,7 +2851,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2261,49 +2860,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -2319,7 +2912,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2328,47 +2921,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -2384,7 +2979,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2393,39 +2988,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -2441,7 +3046,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2450,33 +3055,33 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2485,10 +3090,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" t="s">
+        <v>180</v>
+      </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -2504,7 +3113,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2513,25 +3122,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2542,10 +3151,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>188</v>
+      </c>
+      <c r="X17" t="s">
+        <v>189</v>
+      </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18">
@@ -2561,7 +3174,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2570,25 +3183,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2600,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
@@ -2622,7 +3235,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2631,29 +3244,27 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="n">
         <v>4</v>
@@ -2661,15 +3272,19 @@
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>206</v>
+      </c>
+      <c r="X19" t="s">
+        <v>207</v>
+      </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
@@ -2685,7 +3300,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2694,39 +3309,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -2742,7 +3363,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2751,29 +3372,31 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="n">
         <v>5</v>
       </c>
@@ -2787,7 +3410,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -2803,7 +3426,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2812,39 +3435,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
       <c r="Y22" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
@@ -2860,7 +3493,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2869,47 +3502,47 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="X23" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
@@ -2925,7 +3558,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2934,34 +3567,34 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -2969,10 +3602,14 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
       <c r="Y24" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
@@ -2988,7 +3625,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2997,33 +3634,31 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
@@ -3033,13 +3668,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="X25" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26">
@@ -3055,7 +3690,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3064,45 +3699,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>243</v>
-      </c>
-      <c r="O26" t="s">
-        <v>63</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>256</v>
+      </c>
+      <c r="X26" t="s">
+        <v>257</v>
+      </c>
       <c r="Y26" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27">
@@ -3118,7 +3747,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3127,30 +3756,30 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="n">
         <v>5</v>
@@ -3165,7 +3794,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
@@ -3181,7 +3810,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3190,25 +3819,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3222,7 +3851,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -3238,7 +3867,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3247,45 +3876,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="N29" t="s">
+        <v>277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
@@ -3301,7 +3924,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3310,47 +3933,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
@@ -3366,7 +3981,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3375,49 +3990,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
@@ -3433,7 +4042,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3442,37 +4051,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
       <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3480,7 +4089,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
@@ -3496,7 +4105,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3505,41 +4114,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3547,7 +4152,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
@@ -3563,7 +4168,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3572,49 +4177,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>312</v>
+      </c>
+      <c r="X34" t="s">
+        <v>313</v>
+      </c>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35">
@@ -3630,7 +4233,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3639,49 +4242,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -3697,7 +4290,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3706,45 +4299,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s">
-        <v>305</v>
+        <v>91</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>306</v>
-      </c>
-      <c r="X36" t="s">
-        <v>307</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
@@ -3760,7 +4351,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3769,49 +4360,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
@@ -3827,7 +4408,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3836,34 +4417,32 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>332</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -3874,7 +4453,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
@@ -3890,7 +4469,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3899,28 +4478,24 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s">
-        <v>326</v>
-      </c>
-      <c r="O39" t="s">
-        <v>305</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
@@ -3929,11 +4504,11 @@
         <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3941,7 +4516,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40">
@@ -3957,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3966,45 +4541,47 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="J40" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>349</v>
+      </c>
+      <c r="X40" t="s">
+        <v>350</v>
+      </c>
       <c r="Y40" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
@@ -4020,7 +4597,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4029,34 +4606,30 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="J41" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -4071,7 +4644,1904 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>338</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>348</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>363</v>
+      </c>
+      <c r="X42" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>366</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>367</v>
+      </c>
+      <c r="J43" t="s">
+        <v>368</v>
+      </c>
+      <c r="K43" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" t="s">
+        <v>370</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>348</v>
+      </c>
+      <c r="O43" t="s">
+        <v>371</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>363</v>
+      </c>
+      <c r="X43" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>376</v>
+      </c>
+      <c r="L44" t="s">
+        <v>377</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>348</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>363</v>
+      </c>
+      <c r="X44" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>379</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>380</v>
+      </c>
+      <c r="J45" t="s">
+        <v>381</v>
+      </c>
+      <c r="K45" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" t="s">
+        <v>382</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>385</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>386</v>
+      </c>
+      <c r="J46" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s">
+        <v>388</v>
+      </c>
+      <c r="L46" t="s">
+        <v>389</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>390</v>
+      </c>
+      <c r="O46" t="s">
+        <v>91</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>393</v>
+      </c>
+      <c r="J47" t="s">
+        <v>394</v>
+      </c>
+      <c r="K47" t="s">
+        <v>395</v>
+      </c>
+      <c r="L47" t="s">
+        <v>396</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>397</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>398</v>
+      </c>
+      <c r="J48" t="s">
+        <v>399</v>
+      </c>
+      <c r="K48" t="s">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s">
+        <v>401</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>402</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>403</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>404</v>
+      </c>
+      <c r="J49" t="s">
+        <v>405</v>
+      </c>
+      <c r="K49" t="s">
+        <v>406</v>
+      </c>
+      <c r="L49" t="s">
+        <v>407</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>408</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>410</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>411</v>
+      </c>
+      <c r="J50" t="s">
+        <v>412</v>
+      </c>
+      <c r="K50" t="s">
+        <v>413</v>
+      </c>
+      <c r="L50" t="s">
+        <v>414</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>415</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>416</v>
+      </c>
+      <c r="J51" t="s">
+        <v>417</v>
+      </c>
+      <c r="K51" t="s">
+        <v>418</v>
+      </c>
+      <c r="L51" t="s">
+        <v>419</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>420</v>
+      </c>
+      <c r="O51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>422</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>423</v>
+      </c>
+      <c r="J52" t="s">
+        <v>424</v>
+      </c>
+      <c r="K52" t="s">
+        <v>425</v>
+      </c>
+      <c r="L52" t="s">
+        <v>426</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>427</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>429</v>
+      </c>
+      <c r="J53" t="s">
+        <v>430</v>
+      </c>
+      <c r="K53" t="s">
+        <v>431</v>
+      </c>
+      <c r="L53" t="s">
+        <v>432</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>427</v>
+      </c>
+      <c r="O53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>434</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>435</v>
+      </c>
+      <c r="J54" t="s">
+        <v>436</v>
+      </c>
+      <c r="K54" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" t="s">
+        <v>438</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>444</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>445</v>
+      </c>
+      <c r="J56" t="s">
+        <v>446</v>
+      </c>
+      <c r="K56" t="s">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s">
+        <v>448</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>449</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>450</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>451</v>
+      </c>
+      <c r="J57" t="s">
+        <v>452</v>
+      </c>
+      <c r="K57" t="s">
+        <v>453</v>
+      </c>
+      <c r="L57" t="s">
+        <v>454</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>455</v>
+      </c>
+      <c r="O57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>456</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>457</v>
+      </c>
+      <c r="J58" t="s">
+        <v>458</v>
+      </c>
+      <c r="K58" t="s">
+        <v>459</v>
+      </c>
+      <c r="L58" t="s">
+        <v>460</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>461</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>462</v>
+      </c>
+      <c r="X58" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>465</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" t="s">
+        <v>467</v>
+      </c>
+      <c r="K59" t="s">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s">
+        <v>469</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>461</v>
+      </c>
+      <c r="O59" t="s">
+        <v>91</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>470</v>
+      </c>
+      <c r="X59" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>473</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>474</v>
+      </c>
+      <c r="J60" t="s">
+        <v>475</v>
+      </c>
+      <c r="K60" t="s">
+        <v>476</v>
+      </c>
+      <c r="L60" t="s">
+        <v>477</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>478</v>
+      </c>
+      <c r="O60" t="s">
+        <v>91</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>480</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>481</v>
+      </c>
+      <c r="J61" t="s">
+        <v>482</v>
+      </c>
+      <c r="K61" t="s">
+        <v>483</v>
+      </c>
+      <c r="L61" t="s">
+        <v>484</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>478</v>
+      </c>
+      <c r="O61" t="s">
+        <v>371</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>485</v>
+      </c>
+      <c r="X61" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>488</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>489</v>
+      </c>
+      <c r="J62" t="s">
+        <v>490</v>
+      </c>
+      <c r="K62" t="s">
+        <v>491</v>
+      </c>
+      <c r="L62" t="s">
+        <v>492</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>461</v>
+      </c>
+      <c r="O62" t="s">
+        <v>91</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>494</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>495</v>
+      </c>
+      <c r="J63" t="s">
+        <v>496</v>
+      </c>
+      <c r="K63" t="s">
+        <v>497</v>
+      </c>
+      <c r="L63" t="s">
+        <v>498</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>499</v>
+      </c>
+      <c r="O63" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>500</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>501</v>
+      </c>
+      <c r="J64" t="s">
+        <v>502</v>
+      </c>
+      <c r="K64" t="s">
+        <v>503</v>
+      </c>
+      <c r="L64" t="s">
+        <v>504</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>505</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>506</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>507</v>
+      </c>
+      <c r="J65" t="s">
+        <v>508</v>
+      </c>
+      <c r="K65" t="s">
+        <v>509</v>
+      </c>
+      <c r="L65" t="s">
+        <v>510</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>511</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>512</v>
+      </c>
+      <c r="J66" t="s">
+        <v>513</v>
+      </c>
+      <c r="K66" t="s">
+        <v>514</v>
+      </c>
+      <c r="L66" t="s">
+        <v>515</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>516</v>
+      </c>
+      <c r="O66" t="s">
+        <v>371</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>517</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>518</v>
+      </c>
+      <c r="J67" t="s">
+        <v>519</v>
+      </c>
+      <c r="K67" t="s">
+        <v>520</v>
+      </c>
+      <c r="L67" t="s">
+        <v>521</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>522</v>
+      </c>
+      <c r="O67" t="s">
+        <v>91</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>524</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>525</v>
+      </c>
+      <c r="J68" t="s">
+        <v>526</v>
+      </c>
+      <c r="K68" t="s">
+        <v>527</v>
+      </c>
+      <c r="L68" t="s">
+        <v>528</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>529</v>
+      </c>
+      <c r="O68" t="s">
+        <v>72</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>530</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>531</v>
+      </c>
+      <c r="J69" t="s">
+        <v>532</v>
+      </c>
+      <c r="K69" t="s">
+        <v>533</v>
+      </c>
+      <c r="L69" t="s">
+        <v>534</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>535</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36478</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>537</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>538</v>
+      </c>
+      <c r="J70" t="s">
+        <v>539</v>
+      </c>
+      <c r="K70" t="s">
+        <v>540</v>
+      </c>
+      <c r="L70" t="s">
+        <v>541</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>542</v>
+      </c>
+      <c r="O70" t="s">
+        <v>91</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
